--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +462,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
+          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4-23</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -555,31 +555,6 @@
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>26</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4-11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +462,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
+          <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Aircraft in Restricted Zones</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>4-23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -555,6 +555,31 @@
         </is>
       </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Go to Profile &gt; Settings to update firmware</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4-11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
